--- a/va_facility_data_2025-02-20/James J. Peters Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''James%20J.%20Peters%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/James J. Peters Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''James%20J.%20Peters%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R29b58445d170418aac752214174f45f6"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rf7d43dcf038540a5b0bcd8d6ad4facee"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R937b5b27390847c6b394aecb48b05dad"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rdba003d7b24149579033c633e4c8494b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R57bcd6cef06848dca2053a70c6f39aea"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rdc41e7ba8593441ba58807575fb21376"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R5cc9b87943de40999571efe1bb4a944f"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rb464f6f6790641aaab27bc214b870310"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R0fa4fabc37194d4da4673d2364ddfbf2"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R6bfed8d460c3485f92d3d5f3aab7711a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rce2dbb9bb3444cf1868a9a808ef6ae3e"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R7ae52f7315274e82a81edffe77c4b3d3"/>
   </x:sheets>
 </x:workbook>
 </file>
